--- a/data/test_IO_ExcelFlie.xlsx
+++ b/data/test_IO_ExcelFlie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331146ca4acd5149/Máy tính/MS_Demo/testIOExcel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B5EB862B82CE2E51BE45F7D3BFC246CF99FCC3CD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB079FD3-9F3A-45E6-8CC5-B69E84702431}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_B5EB862B82CE2E51BE45F7D3BFC246CF99FCC3CD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89A4CAA-FA5E-4C05-8E67-40F19B8FB5B0}"/>
   <bookViews>
     <workbookView xWindow="10572" yWindow="2268" windowWidth="11652" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,6 +119,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
